--- a/vyuha/others/mis/input_files/Mid Mile Logistics Cost Tracker.xlsx
+++ b/vyuha/others/mis/input_files/Mid Mile Logistics Cost Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23E902A-E0AA-4525-BE4C-6393F49D4382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2448CE2A-7465-48FC-8E12-D4A001F80E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,8 +35,38 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Janak Kothari</author>
+  </authors>
+  <commentList>
+    <comment ref="AH10" authorId="0" shapeId="0" xr:uid="{30EA4165-0609-4A77-BE5A-28E048E5B384}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+          </rPr>
+          <t>Janak Kothari:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+          </rPr>
+          <t xml:space="preserve">
+Rs. 35K of last month considered this month.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>Month</t>
   </si>
@@ -228,7 +258,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +295,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="4">
@@ -321,10 +370,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -356,14 +406,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -641,18 +701,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="BI5" sqref="BI5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="47" max="47" width="10.42578125" customWidth="1"/>
+    <col min="11" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="36" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="46" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="60" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1957,160 +2034,160 @@
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
         <v>9950</v>
       </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
         <v>19025</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>3300</v>
       </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
         <v>23400</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <v>98851</v>
       </c>
-      <c r="O8" s="11">
-        <v>0</v>
-      </c>
-      <c r="P8" s="12">
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
         <v>37560</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="11">
         <v>104300</v>
       </c>
-      <c r="R8" s="11">
-        <v>0</v>
-      </c>
-      <c r="S8" s="11">
-        <v>0</v>
-      </c>
-      <c r="T8" s="11">
-        <v>0</v>
-      </c>
-      <c r="U8" s="11">
-        <v>0</v>
-      </c>
-      <c r="V8" s="11">
-        <v>0</v>
-      </c>
-      <c r="W8" s="11">
-        <v>0</v>
-      </c>
-      <c r="X8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="12">
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="11">
         <v>1366</v>
       </c>
-      <c r="AC8" s="12">
+      <c r="AC8" s="11">
         <v>43810</v>
       </c>
-      <c r="AD8" s="12">
+      <c r="AD8" s="11">
         <v>43810</v>
       </c>
-      <c r="AE8" s="12">
+      <c r="AE8" s="11">
         <v>44842</v>
       </c>
-      <c r="AF8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="12">
+      <c r="AF8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
         <v>595400</v>
       </c>
-      <c r="AH8" s="12">
+      <c r="AH8" s="11">
         <v>100000</v>
       </c>
-      <c r="AI8" s="12">
+      <c r="AI8" s="11">
         <v>128380</v>
       </c>
-      <c r="AJ8" s="12">
+      <c r="AJ8" s="11">
         <v>130289.99999999999</v>
       </c>
-      <c r="AK8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="12">
+      <c r="AK8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="11">
         <v>130831</v>
       </c>
-      <c r="AV8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="11">
+      <c r="AV8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="4">
         <v>31900</v>
       </c>
-      <c r="AX8" s="11">
+      <c r="AX8" s="4">
         <v>31400</v>
       </c>
-      <c r="AY8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="12">
+      <c r="AY8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="11">
         <v>700</v>
       </c>
       <c r="BC8" s="4">
@@ -2131,12 +2208,410 @@
       <c r="BH8" s="4">
         <v>0</v>
       </c>
-      <c r="BI8" s="12">
+      <c r="BI8" s="11">
         <v>26600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <f>0.039658*10^6</f>
+        <v>39658</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <f>0.02963*10^6</f>
+        <v>29630</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <f>0.033137*10^6</f>
+        <v>33137</v>
+      </c>
+      <c r="Q9" s="13">
+        <f>0.10815*10^6</f>
+        <v>108150</v>
+      </c>
+      <c r="R9" s="12">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12">
+        <v>0</v>
+      </c>
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12">
+        <v>0</v>
+      </c>
+      <c r="V9" s="12">
+        <v>0</v>
+      </c>
+      <c r="W9" s="12">
+        <v>0</v>
+      </c>
+      <c r="X9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="13">
+        <f>0.0108*10^6</f>
+        <v>10800</v>
+      </c>
+      <c r="AC9" s="13">
+        <f>0.04698*10^6</f>
+        <v>46980</v>
+      </c>
+      <c r="AD9" s="13">
+        <f>0.046981*10^6</f>
+        <v>46981</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="13">
+        <f>0.627492*10^6</f>
+        <v>627492</v>
+      </c>
+      <c r="AH9" s="13">
+        <f>0.0649999999999999*10^6</f>
+        <v>64999.999999999905</v>
+      </c>
+      <c r="AI9" s="13">
+        <f>0.132561*10^6</f>
+        <v>132561</v>
+      </c>
+      <c r="AJ9" s="13">
+        <f>0.135801*10^6</f>
+        <v>135801</v>
+      </c>
+      <c r="AK9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="13">
+        <f>0.145*10^6</f>
+        <v>145000</v>
+      </c>
+      <c r="AV9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="13">
+        <f>0.0286*10^6</f>
+        <v>28600</v>
+      </c>
+      <c r="AX9" s="13">
+        <f>0.0282*10^6</f>
+        <v>28200</v>
+      </c>
+      <c r="AY9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="13">
+        <f>0.0206*10^6</f>
+        <v>20600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <f>0.08117*10^6</f>
+        <v>81170</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <f>0.0235*10^6</f>
+        <v>23500</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <f>0.0399*10^6</f>
+        <v>39900</v>
+      </c>
+      <c r="Q10" s="13">
+        <f>0.1021*10^6</f>
+        <v>102100</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0</v>
+      </c>
+      <c r="V10" s="12">
+        <v>0</v>
+      </c>
+      <c r="W10" s="12">
+        <v>0</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="13">
+        <f>0.01755*10^6</f>
+        <v>17550</v>
+      </c>
+      <c r="AC10" s="13">
+        <f>0.045136*10^6</f>
+        <v>45136</v>
+      </c>
+      <c r="AD10" s="13">
+        <f>0.044916*10^6</f>
+        <v>44916</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="13">
+        <f>0.621781999999999*10^6</f>
+        <v>621781.99999999895</v>
+      </c>
+      <c r="AH10" s="13">
+        <f>0.135*10^6</f>
+        <v>135000</v>
+      </c>
+      <c r="AI10" s="13">
+        <f>0.12848*10^6</f>
+        <v>128480.00000000001</v>
+      </c>
+      <c r="AJ10" s="13">
+        <f>0.13083*10^6</f>
+        <v>130830</v>
+      </c>
+      <c r="AK10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="13">
+        <f>0.1088952*10^6</f>
+        <v>108895.2</v>
+      </c>
+      <c r="AV10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/vyuha/others/mis/input_files/Mid Mile Logistics Cost Tracker.xlsx
+++ b/vyuha/others/mis/input_files/Mid Mile Logistics Cost Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2448CE2A-7465-48FC-8E12-D4A001F80E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67843682-69C7-402C-9AA4-1AC8342C4F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>Month</t>
   </si>
@@ -702,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI10"/>
+  <dimension ref="A1:BI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2609,6 +2609,191 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>700.00000000002001</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>38630</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>28800</v>
+      </c>
+      <c r="N11" s="11">
+        <v>68783</v>
+      </c>
+      <c r="O11" s="11">
+        <v>7370</v>
+      </c>
+      <c r="P11" s="11">
+        <v>36315</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>104300</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="11">
+        <v>0</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>6230.24999999999</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>44079.75</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>43809.5</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>54959</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>674252</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>100000</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>131751</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>135851</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>115929</v>
+      </c>
+      <c r="AV11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="11">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="11">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="11">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="11">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="11">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="11">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
